--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H2">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.133426221396128</v>
+        <v>0.158112</v>
       </c>
       <c r="N2">
-        <v>0.133426221396128</v>
+        <v>0.474336</v>
       </c>
       <c r="O2">
-        <v>0.01530869988870878</v>
+        <v>0.01629742442243621</v>
       </c>
       <c r="P2">
-        <v>0.01530869988870878</v>
+        <v>0.01629742442243621</v>
       </c>
       <c r="Q2">
-        <v>0.3959580853988721</v>
+        <v>0.739079734176</v>
       </c>
       <c r="R2">
-        <v>0.3959580853988721</v>
+        <v>6.651717607584001</v>
       </c>
       <c r="S2">
-        <v>0.01530869988870878</v>
+        <v>0.01629742442243621</v>
       </c>
       <c r="T2">
-        <v>0.01530869988870878</v>
+        <v>0.01629742442243621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H3">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.97790653622634</v>
+        <v>5.072121333333333</v>
       </c>
       <c r="N3">
-        <v>4.97790653622634</v>
+        <v>15.216364</v>
       </c>
       <c r="O3">
-        <v>0.5711416874415235</v>
+        <v>0.5228098695318912</v>
       </c>
       <c r="P3">
-        <v>0.5711416874415235</v>
+        <v>0.5228098695318912</v>
       </c>
       <c r="Q3">
-        <v>14.7725261253326</v>
+        <v>23.70915608396844</v>
       </c>
       <c r="R3">
-        <v>14.7725261253326</v>
+        <v>213.382404755716</v>
       </c>
       <c r="S3">
-        <v>0.5711416874415235</v>
+        <v>0.5228098695318912</v>
       </c>
       <c r="T3">
-        <v>0.5711416874415235</v>
+        <v>0.5228098695318912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.674406333333334</v>
+      </c>
+      <c r="H4">
+        <v>14.023219</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.010494</v>
+      </c>
+      <c r="N4">
+        <v>0.031482</v>
+      </c>
+      <c r="O4">
+        <v>0.001081671042609325</v>
+      </c>
+      <c r="P4">
+        <v>0.001081671042609325</v>
+      </c>
+      <c r="Q4">
+        <v>0.049053220062</v>
+      </c>
+      <c r="R4">
+        <v>0.441478980558</v>
+      </c>
+      <c r="S4">
+        <v>0.001081671042609325</v>
+      </c>
+      <c r="T4">
+        <v>0.001081671042609325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.96761821818603</v>
-      </c>
-      <c r="H4">
-        <v>2.96761821818603</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.60437937770648</v>
-      </c>
-      <c r="N4">
-        <v>3.60437937770648</v>
-      </c>
-      <c r="O4">
-        <v>0.4135496126697676</v>
-      </c>
-      <c r="P4">
-        <v>0.4135496126697676</v>
-      </c>
-      <c r="Q4">
-        <v>10.69642190653578</v>
-      </c>
-      <c r="R4">
-        <v>10.69642190653578</v>
-      </c>
-      <c r="S4">
-        <v>0.4135496126697676</v>
-      </c>
-      <c r="T4">
-        <v>0.4135496126697676</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.674406333333334</v>
+      </c>
+      <c r="H5">
+        <v>14.023219</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.460928333333333</v>
+      </c>
+      <c r="N5">
+        <v>13.382785</v>
+      </c>
+      <c r="O5">
+        <v>0.4598110350030633</v>
+      </c>
+      <c r="P5">
+        <v>0.4598110350030633</v>
+      </c>
+      <c r="Q5">
+        <v>20.85219165387945</v>
+      </c>
+      <c r="R5">
+        <v>187.669724884915</v>
+      </c>
+      <c r="S5">
+        <v>0.4598110350030633</v>
+      </c>
+      <c r="T5">
+        <v>0.4598110350030633</v>
       </c>
     </row>
   </sheetData>
